--- a/数据整理/stocks/A股/创业板/300369-绿盟科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300369-绿盟科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>64.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>84.82</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.77</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7994</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162720</t>
+          <t>004450</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发创业板两年定期开放混合</t>
+          <t>嘉实前沿科技沪港深股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.21</t>
+          <t>34.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1812</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000314</t>
+          <t>000654</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商瑞丰灵活配置混合A</t>
+          <t>华商新锐产业灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.56</t>
+          <t>16.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4537</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000654</t>
+          <t>162720</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商新锐产业灵活配置混合</t>
+          <t>广发创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.87</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>41.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2150</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002389</t>
+          <t>008961</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商安德灵活配置混合A</t>
+          <t>华商科技创新混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21.52</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002390</t>
+          <t>000314</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商安德灵活配置混合C</t>
+          <t>招商瑞丰灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21.52</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002776</t>
+          <t>002389</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商安荣灵活配置混合A</t>
+          <t>招商安德灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24.92</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002777</t>
+          <t>001427</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商安荣灵活配置混合C</t>
+          <t>招商丰泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24.92</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>1.53</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>6</v>
       </c>
     </row>
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001427</t>
+          <t>002776</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商丰泽灵活配置混合A</t>
+          <t>招商安荣灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>21.31</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>1.53</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>6</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001446</t>
+          <t>002819</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商丰泽灵活配置混合C</t>
+          <t>招商丰美灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>21.31</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -782,15 +892,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>23.54</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>0.97</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>10</v>
       </c>
     </row>
@@ -810,15 +930,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>23.54</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>0.97</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -838,15 +968,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>21.56</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1.61</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004194</t>
+          <t>002390</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>招商中证1000指数增强A</t>
+          <t>招商安德灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -884,25 +1034,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>004195</t>
+          <t>004194</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>招商中证1000指数增强C</t>
+          <t>招商中证1000指数增强A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>94.63</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>0.95</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>2</v>
       </c>
     </row>
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004450</t>
+          <t>001446</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>嘉实前沿科技沪港深股票</t>
+          <t>招商丰泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>90.97</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002819</t>
+          <t>004536</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>招商丰美灵活配置混合A</t>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>28.97</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002820</t>
+          <t>004195</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>招商丰美灵活配置混合C</t>
+          <t>招商中证1000指数增强C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>28.97</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -996,25 +1186,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>004536</t>
+          <t>002777</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
+          <t>招商安荣灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1024,25 +1224,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>008961</t>
+          <t>002820</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华商科技创新混合</t>
+          <t>招商丰美灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>87.58</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1057,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,15 +1288,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004450</t>
+          <t>952009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实前沿科技沪港深股票</t>
+          <t>国泰君安君得鑫两年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>96.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8050</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002588</t>
+          <t>952099</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时中证银联智惠大数据100指数A</t>
+          <t>国泰君安君得鑫两年持有期混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>75.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1944</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004416</t>
+          <t>952004</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时中证银联智惠大数据100指数C</t>
+          <t>国泰君安君得明混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>51.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7971</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005482</t>
+          <t>004450</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时创新驱动灵活配置混合A</t>
+          <t>嘉实前沿科技沪港深股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>72.78</t>
+          <t>32.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3236</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005483</t>
+          <t>005482</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时创新驱动灵活配置混合C</t>
+          <t>博时创新驱动灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>72.78</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.40</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>952004</t>
+          <t>002588</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰君安君得明混合</t>
+          <t>博时中证银联智惠大数据100指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>85.79</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>952009</t>
+          <t>005483</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰君安君得鑫两年持有期混合A</t>
+          <t>博时创新驱动灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>86.69</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>72.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>952099</t>
+          <t>004416</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰君安君得鑫两年持有期混合C</t>
+          <t>博时中证银联智惠大数据100指数C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>86.69</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300369-绿盟科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300369-绿盟科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1619,4 +1620,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9671</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6801</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3627</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7800</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300369-绿盟科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300369-绿盟科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1866,4 +1867,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8376</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2720</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2201</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004397</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛信息安全量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>50.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300369-绿盟科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300369-绿盟科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2227,4 +2228,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.130000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300369-绿盟科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300369-绿盟科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2236,7 +2237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2247,17 +2248,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2267,14 +2288,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6666</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.53</v>
       </c>
     </row>
     <row r="3">
@@ -2283,14 +2326,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.81</v>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8854</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2299,14 +2364,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.130000000000001</v>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0751</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2315,13 +2402,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0572</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.130000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300369-绿盟科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300369-绿盟科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2521,7 +2522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2532,17 +2533,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2552,14 +2573,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.86</v>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4020</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2568,14 +2611,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.53</v>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1685</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2584,14 +2649,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.81</v>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8201</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2600,14 +2687,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.130000000000001</v>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2616,13 +2725,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.130000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>20</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300369-绿盟科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300369-绿盟科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2806,7 +2807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2817,17 +2818,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2837,14 +2858,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.52</v>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8097</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2853,14 +2896,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.86</v>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0517</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2869,14 +2934,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.53</v>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5621</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2885,14 +2972,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>9.81</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="6">
@@ -2901,14 +3110,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>8.130000000000001</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="7">
@@ -2917,13 +3126,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.130000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>20</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300369-绿盟科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300369-绿盟科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3.58</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>4.52</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>6.86</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>5.53</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>9.81</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>8.130000000000001</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.130000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>20</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.54</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4774</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -799,290 +948,6 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>012930</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中庚价值先锋股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>54.59</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.46</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.4020</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004450</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实前沿科技沪港深股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.72</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.32</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1685</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161914</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15.74</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.20</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8201</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161915</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1230</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005104</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富荣福康混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.88</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005105</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富荣福康混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.88</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1158,26 +1023,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>71.30</t>
+          <t>54.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6666</t>
+          <t>2.4020</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1186,36 +1051,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>206009</t>
+          <t>004450</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华新兴产业混合</t>
+          <t>嘉实前沿科技沪港深股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>60.43</t>
+          <t>21.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.99</t>
+          <t>88.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8854</t>
+          <t>1.1685</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1224,36 +1089,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004450</t>
+          <t>161914</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实前沿科技沪港深股票</t>
+          <t>万家创业板2年定期开放混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.72</t>
+          <t>15.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.40</t>
+          <t>95.20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0751</t>
+          <t>0.8201</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1262,32 +1127,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161914</t>
+          <t>161915</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家创业板2年定期开放混合A</t>
+          <t>万家创业板2年定期开放混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19.91</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.79</t>
+          <t>95.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.0572</t>
+          <t>0.1230</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1300,32 +1165,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161915</t>
+          <t>005104</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家创业板2年定期开放混合C</t>
+          <t>富荣福康混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>2.98</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>98.79</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1582</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1338,36 +1203,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>930602</t>
+          <t>005105</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国信价值智选混合型集合资产管理计划</t>
+          <t>富荣福康混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>50.19</t>
+          <t>87.88</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1376,6 +1241,290 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6666</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8854</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0751</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0572</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1735,7 +1884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1981,7 +2130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2341,7 +2490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300369-绿盟科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300369-绿盟科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.57</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3.58</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>4.52</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>6.86</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5.53</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>9.81</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>8.130000000000001</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.130000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>20</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.54</v>
       </c>
     </row>
@@ -616,7 +633,1069 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7994</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1812</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4537</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>41.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2150</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5975</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4008</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005650</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005651</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -748,7 +1827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -948,290 +2027,6 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>012930</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中庚价值先锋股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>54.59</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.46</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.4020</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004450</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实前沿科技沪港深股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.72</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.32</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1685</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161914</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15.74</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.20</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8201</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161915</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1230</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005104</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富荣福康混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.88</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005105</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富荣福康混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.88</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1307,26 +2102,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>71.30</t>
+          <t>54.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6666</t>
+          <t>2.4020</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1335,36 +2130,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>206009</t>
+          <t>004450</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华新兴产业混合</t>
+          <t>嘉实前沿科技沪港深股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>60.43</t>
+          <t>21.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.99</t>
+          <t>88.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8854</t>
+          <t>1.1685</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1373,36 +2168,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004450</t>
+          <t>161914</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实前沿科技沪港深股票</t>
+          <t>万家创业板2年定期开放混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.72</t>
+          <t>15.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.40</t>
+          <t>95.20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0751</t>
+          <t>0.8201</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1411,32 +2206,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161914</t>
+          <t>161915</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家创业板2年定期开放混合A</t>
+          <t>万家创业板2年定期开放混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19.91</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.79</t>
+          <t>95.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.0572</t>
+          <t>0.1230</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1449,32 +2244,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161915</t>
+          <t>005104</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家创业板2年定期开放混合C</t>
+          <t>富荣福康混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>2.98</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>98.79</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1582</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1487,36 +2282,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>930602</t>
+          <t>005105</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国信价值智选混合型集合资产管理计划</t>
+          <t>富荣福康混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>50.19</t>
+          <t>87.88</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1525,6 +2320,290 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6666</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8854</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0751</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0572</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1884,7 +2963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2130,7 +3209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2488,820 +3567,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>952004</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰君安君得明混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>64.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7994</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004450</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实前沿科技沪港深股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>34.14</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1812</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000654</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华商新锐产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>16.38</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.87</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4537</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>162720</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>41.21</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2150</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008961</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华商科技创新混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1422</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000314</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商瑞丰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.09</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>21.56</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1302</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002389</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商安德灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>21.52</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1256</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001427</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商丰泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>21.31</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1232</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002776</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>招商安荣灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>24.92</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0973</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002819</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>招商丰美灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>28.97</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0791</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004932</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商丰拓灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>23.54</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0657</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004933</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>招商丰拓灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>23.54</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0410</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002017</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>招商瑞丰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>21.56</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0359</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002390</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>招商安德灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>21.52</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0282</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004194</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001446</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商丰泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>21.31</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004536</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004195</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002777</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>招商安荣灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>24.92</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002820</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>招商丰美灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>28.97</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>